--- a/Congreso_2016/Pensamiento-colombiano.xlsx
+++ b/Congreso_2016/Pensamiento-colombiano.xlsx
@@ -187,7 +187,7 @@
     <t xml:space="preserve">Ponente 9</t>
   </si>
   <si>
-    <t xml:space="preserve">email Ponente 9</t>
+    <t xml:space="preserve">Email  9</t>
   </si>
   <si>
     <t xml:space="preserve">Afiliación ponente 9</t>
@@ -955,8 +955,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BB2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BD2" activeCellId="0" sqref="BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Congreso_2016/Pensamiento-colombiano.xlsx
+++ b/Congreso_2016/Pensamiento-colombiano.xlsx
@@ -208,7 +208,7 @@
     <t xml:space="preserve">email ponente 10</t>
   </si>
   <si>
-    <t xml:space="preserve">afiliación ponente 10</t>
+    <t xml:space="preserve">Afiliación ponente 10</t>
   </si>
   <si>
     <t xml:space="preserve">titulo ponencia 10</t>
@@ -955,8 +955,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BB2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BD2" activeCellId="0" sqref="BD2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
